--- a/테스트 영상 분석.xlsx
+++ b/테스트 영상 분석.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcw1217\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcw1217\Desktop\낙상감지논문\fall_detection_paper_final_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E603872-B031-41BB-9395-2BE866BF230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF93D3A-1861-4C67-8965-19C7515A1687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26850" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
